--- a/data/trans_dic/P2A_senso_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.00271858697103695</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.02243085452155804</v>
+        <v>0.02243085452155803</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01650499713279222</v>
@@ -697,7 +697,7 @@
         <v>0.004601693790913589</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02100538604096299</v>
+        <v>0.02100538604096298</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005554493740580284</v>
+        <v>0.005699089702648744</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008825727109109768</v>
+        <v>0.007197373907446054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001799101454491574</v>
+        <v>0.001818171352362029</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009981856080694674</v>
+        <v>0.01009462698687764</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009131061993505831</v>
+        <v>0.009269605343231273</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01472809339932929</v>
+        <v>0.01407703485557305</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01341249566391402</v>
+        <v>0.01356038720011654</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008627840104282594</v>
+        <v>0.009102811610261163</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01398924534693708</v>
+        <v>0.0136976603604697</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001157693186442878</v>
+        <v>0.001214453156978576</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01451911739111364</v>
+        <v>0.01413760901842601</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03117707597682162</v>
+        <v>0.02831343822513855</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0363614969467134</v>
+        <v>0.03885889292352027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0165069587566613</v>
+        <v>0.01539596955985501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03364916072570665</v>
+        <v>0.03288225008881111</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04095964846682403</v>
+        <v>0.04089501931827603</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05900846886337494</v>
+        <v>0.05937877457845077</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01277674174873961</v>
+        <v>0.01459200930541864</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03575308611972932</v>
+        <v>0.03625478913389996</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.027233914696293</v>
+        <v>0.02895150119471535</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03927346906498007</v>
+        <v>0.03990184043103127</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01127326800855319</v>
+        <v>0.01105776706960418</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0305021383222176</v>
+        <v>0.03022655943756521</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.008199992555991522</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.027611390419849</v>
+        <v>0.02761139041984899</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.008244253246376274</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007917065437275233</v>
+        <v>0.007563055962295628</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002048449748603916</v>
+        <v>0.002051557895236156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002540393844067595</v>
+        <v>0.002536274288550721</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01485131983789049</v>
+        <v>0.0141779522255946</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002517100051045357</v>
+        <v>0.002471910095492949</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003257398474717178</v>
+        <v>0.00301359274126049</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007704974314000782</v>
+        <v>0.005409290745017353</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01162109189351198</v>
+        <v>0.01174237234244654</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.006591331170576428</v>
+        <v>0.006701406291056478</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004001272212805204</v>
+        <v>0.003812341759020881</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006258717402536304</v>
+        <v>0.005420198453173994</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01689409831133124</v>
+        <v>0.01643374033387624</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03606114436426736</v>
+        <v>0.03693643282003052</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02204065558724898</v>
+        <v>0.01819270543591153</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02385042503097407</v>
+        <v>0.02222113079022905</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05165105791468216</v>
+        <v>0.05196670596018044</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02513681712659642</v>
+        <v>0.02368603440134733</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03155069496288109</v>
+        <v>0.03056348166926522</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03253200233122264</v>
+        <v>0.03262091135979772</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03958957157238216</v>
+        <v>0.03908315746774405</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02382786071824386</v>
+        <v>0.02447209930727131</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01751700459057608</v>
+        <v>0.01797310555700035</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02307837169177805</v>
+        <v>0.02156970251871512</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04008154075054688</v>
+        <v>0.04089020449190072</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01123254851552586</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03094712364037543</v>
+        <v>0.03094712364037542</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01880086889940599</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003086543990498716</v>
+        <v>0.003419926706867054</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01012437933326121</v>
+        <v>0.009899587231366752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003975899197512194</v>
+        <v>0.003962056939270707</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01713531157234263</v>
+        <v>0.01797848735932175</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005594552523283794</v>
+        <v>0.005559422994685045</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007878793296830926</v>
+        <v>0.0105018700917766</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01868380108783815</v>
+        <v>0.02034378440097637</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004438269089877205</v>
+        <v>0.004590041735612036</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01238049043342184</v>
+        <v>0.01256312006920383</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004608770551445447</v>
+        <v>0.003928480971910047</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02225587098940326</v>
+        <v>0.02221293383321149</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02042912043961646</v>
+        <v>0.02197124503048143</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03580603301688205</v>
+        <v>0.03490614470795522</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02554305303078892</v>
+        <v>0.02437948963619758</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05089127776701707</v>
+        <v>0.05327109055274409</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04908219748699128</v>
+        <v>0.05089026166919786</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04931485344038646</v>
+        <v>0.04924651028831306</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07041971705929705</v>
+        <v>0.06037000380513247</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1093061043529512</v>
+        <v>0.09881620585020573</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02104653215082166</v>
+        <v>0.02114204196190251</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03281749226552955</v>
+        <v>0.03321364700881171</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02490504345102062</v>
+        <v>0.02616539684827546</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05521759872255595</v>
+        <v>0.05434046348243849</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01059894204437223</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02450490245876066</v>
+        <v>0.02450490245876067</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0114094713440014</v>
+        <v>0.01109501858116433</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01246339649445603</v>
+        <v>0.01272429349826754</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004799588199176573</v>
+        <v>0.005107486762515536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01756600842359363</v>
+        <v>0.01681314287089696</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007244374820042191</v>
+        <v>0.007391203061193811</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01372312779603444</v>
+        <v>0.01395597289324405</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.005211162983530305</v>
+        <v>0.005561546676642313</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01586813005302578</v>
+        <v>0.01539157602540222</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01144109887153312</v>
+        <v>0.01165878186067958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0155526869383422</v>
+        <v>0.01517488052121879</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.006043977177130629</v>
+        <v>0.006418994459151642</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01853540851799785</v>
+        <v>0.01850938314351352</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02672784204376238</v>
+        <v>0.02618791034807574</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03024784377678165</v>
+        <v>0.02952305075079204</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01937005342389653</v>
+        <v>0.01954523139719959</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0390032698135573</v>
+        <v>0.03876541293734642</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02647952884333019</v>
+        <v>0.02598671899700174</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03718140374805051</v>
+        <v>0.03933675723247489</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02092779610441668</v>
+        <v>0.0213956969629565</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03239300186224534</v>
+        <v>0.03196384135065652</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02306708096835525</v>
+        <v>0.02317775620911517</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02943629070794576</v>
+        <v>0.03014139195677797</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01715945882060918</v>
+        <v>0.01672359499024107</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03218022670169711</v>
+        <v>0.03265718517281316</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.01523467681151976</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02722569580063965</v>
+        <v>0.02722569580063964</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0128234284444817</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01038415520525563</v>
+        <v>0.01030167582969306</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003982809416100648</v>
+        <v>0.004065547227363255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006827766233441012</v>
+        <v>0.007473264711385442</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01541112988637105</v>
+        <v>0.015213961762616</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.005285345355191497</v>
+        <v>0.005296532020911552</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01055455025541594</v>
+        <v>0.01066833999533689</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005897372417973728</v>
+        <v>0.00578857328122391</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0353460103263731</v>
+        <v>0.036227979073101</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.009717912627735642</v>
+        <v>0.01006541633505005</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.009372470708591875</v>
+        <v>0.009719141105852369</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.008066251428398771</v>
+        <v>0.007828445351719069</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02973325562789005</v>
+        <v>0.02990312247066751</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04780667013142397</v>
+        <v>0.04874416648593204</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02339663227956105</v>
+        <v>0.02462098752389394</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02891640850241294</v>
+        <v>0.02914328897661871</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04363087715538175</v>
+        <v>0.04478391650112474</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02560325529552786</v>
+        <v>0.0244597801762537</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03239906962777649</v>
+        <v>0.03231667659430625</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02236156418442234</v>
+        <v>0.02267144677244028</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05754577344765745</v>
+        <v>0.05863299706552262</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0274812268543073</v>
+        <v>0.02677917500006331</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02480512480196714</v>
+        <v>0.02434685887065403</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02146066812507743</v>
+        <v>0.02153553306226167</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04931984930062541</v>
+        <v>0.04753811906753358</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.009447930879272957</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.03510371628121631</v>
+        <v>0.03510371628121632</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01794210271432229</v>
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.00672147865655747</v>
+        <v>0.003981569615564148</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.002330301929757351</v>
+        <v>0.002808307032745208</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0125303333106647</v>
+        <v>0.0125053265126965</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01310036542959526</v>
+        <v>0.01315025516635043</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.005087006435274741</v>
+        <v>0.004372012804750398</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02588137039340545</v>
+        <v>0.0253880221168202</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01207273958863493</v>
+        <v>0.01208476489757628</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01398286991109404</v>
+        <v>0.01376218881460172</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.004668610445821514</v>
+        <v>0.004880617619179535</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02161318406610838</v>
+        <v>0.02238256300926889</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02612861419006763</v>
+        <v>0.0298257745913345</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05465582188539736</v>
+        <v>0.05120370067720357</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02012867204911786</v>
+        <v>0.02334058779593369</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04514317680941451</v>
+        <v>0.04069404898805216</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0284543726547307</v>
+        <v>0.02881167108183483</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03055142092450509</v>
+        <v>0.03076089607888317</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01785520297318264</v>
+        <v>0.0163917877780072</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04838311557679571</v>
+        <v>0.04909634832170895</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02617722864246577</v>
+        <v>0.02593433655501109</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02954044072945225</v>
+        <v>0.02906540479888719</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01532477267839999</v>
+        <v>0.01483229293983614</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04179051496852752</v>
+        <v>0.04217388513218576</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01128079830256808</v>
+        <v>0.01146849741882562</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01208482838458855</v>
+        <v>0.01253911399056332</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006822495373923688</v>
+        <v>0.007071008752274456</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02045451296777374</v>
+        <v>0.02043065745319923</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01245551184566774</v>
+        <v>0.01279898693806788</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01621409639291902</v>
+        <v>0.01687570535453878</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.007464780286538172</v>
+        <v>0.00750035567035688</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02712283490473166</v>
+        <v>0.02706427399868474</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01332404105683668</v>
+        <v>0.01316903526454053</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01584665585209442</v>
+        <v>0.01583417570057862</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.00818195781268315</v>
+        <v>0.008047832513832648</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02477015215865116</v>
+        <v>0.02498227915707045</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02057164105001629</v>
+        <v>0.02028304868958495</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0212778225615082</v>
+        <v>0.02172269536112799</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0143801620661018</v>
+        <v>0.01428015470930607</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03140855512192196</v>
+        <v>0.0319226439347338</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02146281091458287</v>
+        <v>0.02141237072190498</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02654367690207208</v>
+        <v>0.02728887733229031</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01485093727877438</v>
+        <v>0.0149340861757344</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0372418559668841</v>
+        <v>0.03713924004019214</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01941990417455522</v>
+        <v>0.01970552826043187</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02308652475569642</v>
+        <v>0.02302894520062295</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.013097458682788</v>
+        <v>0.01344017222551315</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03226967135548849</v>
+        <v>0.03236167940989384</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2632</v>
+        <v>2700</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3859</v>
+        <v>3147</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5496</v>
+        <v>5558</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2800</v>
+        <v>2843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4631</v>
+        <v>4427</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6551</v>
+        <v>6623</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6734</v>
+        <v>7104</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>10515</v>
+        <v>10296</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>899</v>
+        <v>943</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15086</v>
+        <v>14689</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14771</v>
+        <v>13414</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15898</v>
+        <v>16990</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7083</v>
+        <v>6606</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18528</v>
+        <v>18106</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12562</v>
+        <v>12542</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18555</v>
+        <v>18672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4434</v>
+        <v>5064</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17462</v>
+        <v>17707</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21255</v>
+        <v>22595</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29520</v>
+        <v>29993</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8750</v>
+        <v>8582</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>31693</v>
+        <v>31406</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2905</v>
+        <v>2775</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7176</v>
+        <v>6851</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1101</v>
+        <v>1019</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2868</v>
+        <v>2014</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4917</v>
+        <v>4969</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4870</v>
+        <v>4951</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3028</v>
+        <v>2885</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4691</v>
+        <v>4062</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>15312</v>
+        <v>14895</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13232</v>
+        <v>13553</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9231</v>
+        <v>7619</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8997</v>
+        <v>8382</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24958</v>
+        <v>25111</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9348</v>
+        <v>8808</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10664</v>
+        <v>10331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12111</v>
+        <v>12144</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16752</v>
+        <v>16538</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>17604</v>
+        <v>18080</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>13257</v>
+        <v>13602</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>17297</v>
+        <v>16166</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36328</v>
+        <v>37061</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1674</v>
+        <v>1855</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6372</v>
+        <v>6231</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8081</v>
+        <v>8479</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2050</v>
+        <v>2732</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3503</v>
+        <v>3814</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3152</v>
+        <v>3260</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11013</v>
+        <v>11175</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3171</v>
+        <v>2703</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>14669</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11081</v>
+        <v>11917</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22537</v>
+        <v>21970</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13331</v>
+        <v>12724</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24001</v>
+        <v>25123</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8235</v>
+        <v>8538</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12828</v>
+        <v>12810</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11698</v>
+        <v>10029</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20495</v>
+        <v>18528</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14947</v>
+        <v>15014</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29193</v>
+        <v>29545</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17136</v>
+        <v>18003</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>36394</v>
+        <v>35816</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14129</v>
+        <v>13739</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14445</v>
+        <v>14748</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5518</v>
+        <v>5872</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19882</v>
+        <v>19030</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5175</v>
+        <v>5279</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10521</v>
+        <v>10699</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4304</v>
+        <v>4593</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>13666</v>
+        <v>13255</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22340</v>
+        <v>22765</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29949</v>
+        <v>29222</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11940</v>
+        <v>12681</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>36942</v>
+        <v>36890</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33098</v>
+        <v>32429</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35058</v>
+        <v>34217</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22269</v>
+        <v>22470</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44146</v>
+        <v>43876</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18914</v>
+        <v>18562</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28505</v>
+        <v>30158</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17284</v>
+        <v>17670</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27897</v>
+        <v>27528</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>45041</v>
+        <v>45257</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>56684</v>
+        <v>58042</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>33899</v>
+        <v>33038</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>64137</v>
+        <v>65088</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3640</v>
+        <v>3611</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2034</v>
+        <v>2076</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4238</v>
+        <v>4639</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8753</v>
+        <v>8641</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3006</v>
+        <v>3012</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8038</v>
+        <v>8124</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4354</v>
+        <v>4273</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>29367</v>
+        <v>30100</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8934</v>
+        <v>9253</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11923</v>
+        <v>12364</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>10962</v>
+        <v>10638</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>41591</v>
+        <v>41829</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16759</v>
+        <v>17088</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11946</v>
+        <v>12571</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17949</v>
+        <v>18089</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24781</v>
+        <v>25436</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14562</v>
+        <v>13912</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24673</v>
+        <v>24610</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>16508</v>
+        <v>16737</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>47812</v>
+        <v>48715</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>25264</v>
+        <v>24618</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>31555</v>
+        <v>30972</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>29164</v>
+        <v>29266</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>68989</v>
+        <v>66497</v>
       </c>
     </row>
     <row r="24">
@@ -2777,37 +2777,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1794</v>
+        <v>1063</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>553</v>
+        <v>666</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15647</v>
+        <v>15616</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>14533</v>
+        <v>14588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5504</v>
+        <v>4731</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21851</v>
+        <v>21435</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>18676</v>
+        <v>18695</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>19244</v>
+        <v>18940</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>6392</v>
+        <v>6682</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>23375</v>
+        <v>24207</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7792</v>
+        <v>8894</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14587</v>
+        <v>13665</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5780</v>
+        <v>6702</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10709</v>
+        <v>9654</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>35533</v>
+        <v>35979</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>33892</v>
+        <v>34125</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>19320</v>
+        <v>17736</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>40849</v>
+        <v>41451</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>40495</v>
+        <v>40119</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>40655</v>
+        <v>40001</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>20982</v>
+        <v>20308</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>45197</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>36890</v>
+        <v>37504</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>41353</v>
+        <v>42908</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>23099</v>
+        <v>23940</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>70414</v>
+        <v>70332</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>42076</v>
+        <v>43237</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>57562</v>
+        <v>59911</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>26363</v>
+        <v>26488</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>98602</v>
+        <v>98389</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>88582</v>
+        <v>87552</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>110483</v>
+        <v>110396</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>56597</v>
+        <v>55669</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>175320</v>
+        <v>176821</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>67273</v>
+        <v>66329</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>72811</v>
+        <v>74333</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>48687</v>
+        <v>48349</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>108123</v>
+        <v>109893</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>72504</v>
+        <v>72334</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>94233</v>
+        <v>96879</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>52448</v>
+        <v>52741</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>135389</v>
+        <v>135016</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>129110</v>
+        <v>131009</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>160960</v>
+        <v>160559</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>90599</v>
+        <v>92970</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>228401</v>
+        <v>229052</v>
       </c>
     </row>
     <row r="32">
